--- a/odkx/app/config/tables/hh_travel/forms/hh_travel/hh_travel.xlsx
+++ b/odkx/app/config/tables/hh_travel/forms/hh_travel/hh_travel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="139">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -54,6 +54,12 @@
     <t xml:space="preserve">display.prompt</t>
   </si>
   <si>
+    <t xml:space="preserve">constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.constraint_message</t>
+  </si>
+  <si>
     <t xml:space="preserve">begin screen</t>
   </si>
   <si>
@@ -90,6 +96,12 @@
     <t xml:space="preserve">q36</t>
   </si>
   <si>
+    <t xml:space="preserve">not(selected(data('travel_months'), 'all')) || (selected(data('travel_months'), 'all') &amp;&amp; countSelected(data('travel_months')) === 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w_all</t>
+  </si>
+  <si>
     <t xml:space="preserve">yndk</t>
   </si>
   <si>
@@ -427,6 +439,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kutembelea mwenza mwingine wa ndoa au mpenzi au rafiki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You cannot select ‘All’ along with other options.</t>
   </si>
 </sst>
 </file>
@@ -436,7 +451,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -468,8 +483,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -514,7 +536,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -527,7 +549,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -540,6 +566,84 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Cascadia mono semilight"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFCC0000"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -550,11 +654,11 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D24 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
@@ -594,13 +698,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="1" sqref="D24 I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
@@ -629,71 +733,83 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -714,11 +830,11 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D24 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.09"/>
@@ -727,233 +843,233 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -974,11 +1090,11 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D24 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.75"/>
@@ -987,7 +1103,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -998,42 +1114,42 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1054,11 +1170,11 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="D24 B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.47"/>
@@ -1070,41 +1186,41 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>20210204001</v>
@@ -1112,74 +1228,74 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1198,326 +1314,345 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="38.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>75</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>78</v>
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>81</v>
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>84</v>
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B24:D24">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/odkx/app/config/tables/hh_travel/forms/hh_travel/hh_travel.xlsx
+++ b/odkx/app/config/tables/hh_travel/forms/hh_travel/hh_travel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="141">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -442,6 +442,12 @@
   </si>
   <si>
     <t xml:space="preserve">You cannot select ‘All’ along with other options.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você não pode selecionar 'Todos' junto com as outras respostas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huwezi kuchagua "Yote" pamoja na majibu mengine</t>
   </si>
 </sst>
 </file>
@@ -451,7 +457,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -485,11 +491,25 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia mono semilight"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia mono semilight"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -536,7 +556,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -555,6 +575,14 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -655,10 +683,10 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D24 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
@@ -701,10 +729,10 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="1" sqref="D24 I20"/>
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
@@ -831,10 +859,10 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D24 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.09"/>
@@ -1091,10 +1119,10 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D24 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.75"/>
@@ -1171,10 +1199,10 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="D24 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.47"/>
@@ -1314,13 +1342,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="38.88"/>
   </cols>
@@ -1640,12 +1668,16 @@
       <c r="B24" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="C24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B24:D24">
